--- a/testData/testDataSheet.xlsx
+++ b/testData/testDataSheet.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -52,6 +54,21 @@
   </si>
   <si>
     <t>mina@test.com</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alexandria </t>
+  </si>
+  <si>
+    <t>cairo</t>
+  </si>
+  <si>
+    <t>luxor</t>
+  </si>
+  <si>
+    <t>sinai</t>
   </si>
 </sst>
 </file>
@@ -75,15 +92,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,14 +114,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -380,80 +420,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A15:D16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>